--- a/biology/Zoologie/Dismorphia_zathoe/Dismorphia_zathoe.xlsx
+++ b/biology/Zoologie/Dismorphia_zathoe/Dismorphia_zathoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dismorphia zathoe est une espèce d'insectes lépidoptères de la famille des Pieridae, de la sous-famille des Dismorphiinae et du genre Dismorphia.
 </t>
@@ -511,47 +523,120 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dismorphia zathoe a été décrit par William Chapman Hewitson en 1858 sous le nom de Leptalis zathoe[1].
-Sous-espèces
-Dismorphia zathoe zathoe en Colombie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia zathoe a été décrit par William Chapman Hewitson en 1858 sous le nom de Leptalis zathoe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dismorphia zathoe zathoe en Colombie.
 Dismorphia zathoe core (C. &amp; R. Felder, 1861); au Venezuela.
 Dismorphia zathoe demeter Röber, 1909; en Colombie.
 Dismorphia zathoe othoe (Hewitson, 1867); en Équateur et en Colombie.
 Dismorphia zathoe pallidula Butler &amp; Druce, 1874; au Costa Rica et à Panama.
-Dismorphia zathoe proserpina Grose-Smith &amp; Kirby, 1897;  en Guyane[1].
-Noms vernaculaires
-Dismorphia zathoe se nomme Zathoe Mimic White en anglais.
+Dismorphia zathoe proserpina Grose-Smith &amp; Kirby, 1897;  en Guyane.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dismorphia zathoe se nomme Zathoe Mimic White en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dismorphia_zathoe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dismorphia_zathoe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dismorphia  zathoe est un papillon blanc et marron  avec les ailes antérieures marron ornéés de taches blanches et les ailes postérieures blanches plus ou moins largement bordées de marron.
 Le revers est blanc nacré.
@@ -559,69 +644,146 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dismorphia_zathoe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dismorphia_zathoe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Inga dont Inga densiflora.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Inga dont Inga densiflora.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dismorphia_zathoe</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dismorphia_zathoe</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent  en Amérique centrale au Costa Rica et à Panama, et tout au nord de l'Amérique du sud, en Guyane, en Colombie,  en Équateur et au Venezuela[1].
-Biotope
-Il réside
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent  en Amérique centrale au Costa Rica et à Panama, et tout au nord de l'Amérique du sud, en Guyane, en Colombie,  en Équateur et au Venezuela.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dismorphia_zathoe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
